--- a/work_now/任务登记.xlsx
+++ b/work_now/任务登记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12735" activeTab="2"/>
+    <workbookView windowWidth="28080" windowHeight="12735"/>
   </bookViews>
   <sheets>
     <sheet name="task查询" sheetId="1" r:id="rId1"/>
@@ -349,6 +349,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">用于判断当日是否已经初始化帮会个人任务，如果需要强制刷新，需要del key并且删掉sql的任务，同时需要删除掉 gangman:$uid:$date:$targetType （可能有几个）
 </t>
     </r>
@@ -432,8 +439,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -460,6 +467,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -468,9 +505,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,29 +541,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,68 +597,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -598,7 +605,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,187 +651,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,6 +971,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,6 +1001,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,36 +1055,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1047,15 +1063,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1064,10 +1071,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,7 +1083,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1085,124 +1092,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1600,8 +1607,8 @@
   <sheetPr/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2110,8 +2117,8 @@
   <sheetPr/>
   <dimension ref="A8:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/work_now/任务登记.xlsx
+++ b/work_now/任务登记.xlsx
@@ -467,10 +467,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,70 +557,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -565,11 +581,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -589,23 +604,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,25 +651,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,85 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,67 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,11 +966,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,17 +996,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,7 +1009,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,6 +1046,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1039,30 +1063,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1071,10 +1071,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1083,133 +1083,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1607,8 +1607,8 @@
   <sheetPr/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
